--- a/Saida/Atmosfera/finalizado.xlsx
+++ b/Saida/Atmosfera/finalizado.xlsx
@@ -18,13 +18,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -53,8 +56,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -423,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,6 +459,1961 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>11986725431</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>11966911000</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>17996707700</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>11984246910</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>16981128170</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>18981474362</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>13991154249</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>11995723162</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>11971252299</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>19994278690</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>11947850838</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>11983491427</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>16993230110</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>11994218181</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>14998955285</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>17997755461</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>11981605040</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>11985620711</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>12988167276</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>11967619192</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>11985791126</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>11970138520</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>11996171350</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>11966494541</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>11974892373</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>11979755959</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>11987580052</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="inlineStr">
+        <is>
+          <t>21981123571</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>11983128000</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>11999836996</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>11947591169</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>11974014455</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>11976314741</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>16981259136</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>9291288984</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="inlineStr">
+        <is>
+          <t>13997561058</t>
+        </is>
+      </c>
+      <c r="B37" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>15997872374</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="inlineStr">
+        <is>
+          <t>15996691265</t>
+        </is>
+      </c>
+      <c r="B39" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="inlineStr">
+        <is>
+          <t>13981476551</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="inlineStr">
+        <is>
+          <t>11995275558</t>
+        </is>
+      </c>
+      <c r="B41" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>11973617872</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="inlineStr">
+        <is>
+          <t>11955543839</t>
+        </is>
+      </c>
+      <c r="B43" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="inlineStr">
+        <is>
+          <t>6181108382</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="inlineStr">
+        <is>
+          <t>11985537471</t>
+        </is>
+      </c>
+      <c r="B45" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C45" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>17991080975</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="inlineStr">
+        <is>
+          <t>11952558055</t>
+        </is>
+      </c>
+      <c r="B47" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>11941952131</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="inlineStr">
+        <is>
+          <t>12981452618</t>
+        </is>
+      </c>
+      <c r="B49" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="inlineStr">
+        <is>
+          <t>11987775354</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="inlineStr">
+        <is>
+          <t>11974402110</t>
+        </is>
+      </c>
+      <c r="B51" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="inlineStr">
+        <is>
+          <t>16996421222</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="inlineStr">
+        <is>
+          <t>6196845756</t>
+        </is>
+      </c>
+      <c r="B53" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="inlineStr">
+        <is>
+          <t>13988355859</t>
+        </is>
+      </c>
+      <c r="B54" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="inlineStr">
+        <is>
+          <t>11992442971</t>
+        </is>
+      </c>
+      <c r="B55" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="inlineStr">
+        <is>
+          <t>12988482130</t>
+        </is>
+      </c>
+      <c r="B56" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="inlineStr">
+        <is>
+          <t>15997704130</t>
+        </is>
+      </c>
+      <c r="B57" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="inlineStr">
+        <is>
+          <t>11963116303</t>
+        </is>
+      </c>
+      <c r="B58" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="inlineStr">
+        <is>
+          <t>14991622712</t>
+        </is>
+      </c>
+      <c r="B59" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="inlineStr">
+        <is>
+          <t>6182738181</t>
+        </is>
+      </c>
+      <c r="B60" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C60" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="inlineStr">
+        <is>
+          <t>11999290571</t>
+        </is>
+      </c>
+      <c r="B61" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C61" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="inlineStr">
+        <is>
+          <t>11984871776</t>
+        </is>
+      </c>
+      <c r="B62" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C62" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="inlineStr">
+        <is>
+          <t>16982618281</t>
+        </is>
+      </c>
+      <c r="B63" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C63" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="inlineStr">
+        <is>
+          <t>11992924689</t>
+        </is>
+      </c>
+      <c r="B64" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C64" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="inlineStr">
+        <is>
+          <t>19999158610</t>
+        </is>
+      </c>
+      <c r="B65" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C65" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="inlineStr">
+        <is>
+          <t>12996552299</t>
+        </is>
+      </c>
+      <c r="B66" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C66" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="inlineStr">
+        <is>
+          <t>11981257631</t>
+        </is>
+      </c>
+      <c r="B67" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C67" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="inlineStr">
+        <is>
+          <t>19983811000</t>
+        </is>
+      </c>
+      <c r="B68" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C68" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="inlineStr">
+        <is>
+          <t>15981180355</t>
+        </is>
+      </c>
+      <c r="B69" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C69" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="inlineStr">
+        <is>
+          <t>11940317849</t>
+        </is>
+      </c>
+      <c r="B70" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C70" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="inlineStr">
+        <is>
+          <t>11996264776</t>
+        </is>
+      </c>
+      <c r="B71" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C71" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="inlineStr">
+        <is>
+          <t>11965736553</t>
+        </is>
+      </c>
+      <c r="B72" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C72" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="inlineStr">
+        <is>
+          <t>11999700911</t>
+        </is>
+      </c>
+      <c r="B73" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C73" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="inlineStr">
+        <is>
+          <t>11940153232</t>
+        </is>
+      </c>
+      <c r="B74" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C74" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="inlineStr">
+        <is>
+          <t>11951490110</t>
+        </is>
+      </c>
+      <c r="B75" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C75" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="inlineStr">
+        <is>
+          <t>13996563239</t>
+        </is>
+      </c>
+      <c r="B76" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C76" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="inlineStr">
+        <is>
+          <t>18996026594</t>
+        </is>
+      </c>
+      <c r="B77" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C77" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="inlineStr">
+        <is>
+          <t>11981621414</t>
+        </is>
+      </c>
+      <c r="B78" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C78" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="inlineStr">
+        <is>
+          <t>11981511111</t>
+        </is>
+      </c>
+      <c r="B79" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C79" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="inlineStr">
+        <is>
+          <t>12996736633</t>
+        </is>
+      </c>
+      <c r="B80" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C80" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="inlineStr">
+        <is>
+          <t>11996189291</t>
+        </is>
+      </c>
+      <c r="B81" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C81" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="inlineStr">
+        <is>
+          <t>11996522908</t>
+        </is>
+      </c>
+      <c r="B82" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C82" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="inlineStr">
+        <is>
+          <t>13974015541</t>
+        </is>
+      </c>
+      <c r="B83" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C83" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="inlineStr">
+        <is>
+          <t>11996163563</t>
+        </is>
+      </c>
+      <c r="B84" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C84" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="inlineStr">
+        <is>
+          <t>11964328278</t>
+        </is>
+      </c>
+      <c r="B85" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C85" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="inlineStr">
+        <is>
+          <t>11993959288</t>
+        </is>
+      </c>
+      <c r="B86" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C86" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="inlineStr">
+        <is>
+          <t>19991154715</t>
+        </is>
+      </c>
+      <c r="B87" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C87" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="inlineStr">
+        <is>
+          <t>11947502272</t>
+        </is>
+      </c>
+      <c r="B88" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C88" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="inlineStr">
+        <is>
+          <t>17981860031</t>
+        </is>
+      </c>
+      <c r="B89" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C89" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="inlineStr">
+        <is>
+          <t>16991122198</t>
+        </is>
+      </c>
+      <c r="B90" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C90" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="inlineStr">
+        <is>
+          <t>18997517435</t>
+        </is>
+      </c>
+      <c r="B91" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C91" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="inlineStr">
+        <is>
+          <t>19981315533</t>
+        </is>
+      </c>
+      <c r="B92" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C92" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="inlineStr">
+        <is>
+          <t>11969292282</t>
+        </is>
+      </c>
+      <c r="B93" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C93" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="inlineStr">
+        <is>
+          <t>11999564849</t>
+        </is>
+      </c>
+      <c r="B94" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C94" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="inlineStr">
+        <is>
+          <t>17997052759</t>
+        </is>
+      </c>
+      <c r="B95" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C95" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="inlineStr">
+        <is>
+          <t>13974115071</t>
+        </is>
+      </c>
+      <c r="B96" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C96" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="inlineStr">
+        <is>
+          <t>11974999007</t>
+        </is>
+      </c>
+      <c r="B97" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C97" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="inlineStr">
+        <is>
+          <t>11997395771</t>
+        </is>
+      </c>
+      <c r="B98" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C98" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="inlineStr">
+        <is>
+          <t>19971394321</t>
+        </is>
+      </c>
+      <c r="B99" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C99" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="inlineStr">
+        <is>
+          <t>15997456578</t>
+        </is>
+      </c>
+      <c r="B100" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C100" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="inlineStr">
+        <is>
+          <t>11992572376</t>
+        </is>
+      </c>
+      <c r="B101" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C101" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="inlineStr">
+        <is>
+          <t>11972311378</t>
+        </is>
+      </c>
+      <c r="B102" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C102" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="inlineStr">
+        <is>
+          <t>11940744932</t>
+        </is>
+      </c>
+      <c r="B103" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C103" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="inlineStr">
+        <is>
+          <t>16991101523</t>
+        </is>
+      </c>
+      <c r="B104" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C104" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="inlineStr">
+        <is>
+          <t>11994137474</t>
+        </is>
+      </c>
+      <c r="B105" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C105" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="inlineStr">
+        <is>
+          <t>11962564751</t>
+        </is>
+      </c>
+      <c r="B106" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C106" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="inlineStr">
+        <is>
+          <t>19991997975</t>
+        </is>
+      </c>
+      <c r="B107" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C107" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="inlineStr">
+        <is>
+          <t>11954973215</t>
+        </is>
+      </c>
+      <c r="B108" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C108" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="inlineStr">
+        <is>
+          <t>18981254087</t>
+        </is>
+      </c>
+      <c r="B109" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C109" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="inlineStr">
+        <is>
+          <t>14996917448</t>
+        </is>
+      </c>
+      <c r="B110" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C110" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="inlineStr">
+        <is>
+          <t>17997684723</t>
+        </is>
+      </c>
+      <c r="B111" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C111" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="inlineStr">
+        <is>
+          <t>11996262034</t>
+        </is>
+      </c>
+      <c r="B112" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C112" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="inlineStr">
+        <is>
+          <t>11947066887</t>
+        </is>
+      </c>
+      <c r="B113" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C113" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="inlineStr">
+        <is>
+          <t>11953945234</t>
+        </is>
+      </c>
+      <c r="B114" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C114" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="inlineStr">
+        <is>
+          <t>19997164081</t>
+        </is>
+      </c>
+      <c r="B115" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C115" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="inlineStr">
+        <is>
+          <t>13981734873</t>
+        </is>
+      </c>
+      <c r="B116" s="2" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="C116" s="2" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -464,7 +2425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,6 +2449,280 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>14997744863</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>11984246910</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>11984246910</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>Não entendi</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>19983811000</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>19991154715</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>martinho colpani  -  Mococa SP</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>11988265454</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>Bom diaaa !!</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>11988265454</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>Participe ! 🇧🇷</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>11988265454</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>TARCÍSIO DE FREITAS ( Ex-Ministro da Infraestrutura do Brasil) PARA O GOVERNO DE SÃO PAULO. 💪🏽</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>11988265454</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>IMAGEM</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>11980997761</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>PRÉ CANDIDATA A DEPUTADA FEDERAL Dra. Cléo de Oliveira (PL) com BOLSONARO Cirurgiã Implantodontista. A MENINA POBRE QUE OUSOU A SONHAR.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>11980997761</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>Para todos, Por todos e Com Todos.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>11980997761</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>Que bom que vc me ligou!  A Jesus te ama!</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>11980997761</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>Se o dentinho🦷🦷🦷 doer me chama🗣😢😢😢😢 CLÉO  meu dente🦷🦷🦷🦷 DÓI</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>11980997761</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>96969-9016 WHATSAPP  DA CLINICA💋💋</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>11980997761</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Página da responsável  dos cadastros.👇🏽 </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>11980997761</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/DraCleodeOliveira</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>11980997761</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>🇧🇷🇧🇷</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>21981123571</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>FIGURINHA</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>11940317849</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>11969292282</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>11974892373</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>Vilela Pre candidato Dep. Estadual por SP</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>11974892373</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>Pelo PL</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>11937692950</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>12981452618</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
